--- a/public/userList.xlsx
+++ b/public/userList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16274\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\VScode\React\my-ai-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAFF367-76DE-40F6-A31A-C0B1650BE4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DF7F6-044E-42EC-A9FE-ADC52A21FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2745" windowWidth="16695" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,27 +35,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理员</t>
+    <t>特朗普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马斯克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -399,26 +391,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/userList.xlsx
+++ b/public/userList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\VScode\React\my-ai-project\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16274\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775DF7F6-044E-42EC-A9FE-ADC52A21FF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273E343-52F2-46B2-A06C-C9D2536C26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +44,34 @@
   </si>
   <si>
     <t>马斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,6 +132,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E82569F-B603-4FAC-AAB4-E7C4FFBFF5E5}" name="表1" displayName="表1" ref="A1:D4" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{23A77C3D-50DB-4D49-AE44-4DEC10749653}" name="用户名称"/>
+    <tableColumn id="2" xr3:uid="{32079FDD-F2B9-46BB-93BF-95C9E643340D}" name="角色"/>
+    <tableColumn id="3" xr3:uid="{B84DC130-F284-4EF6-A9E0-57DAE74C371D}" name="手机号"/>
+    <tableColumn id="4" xr3:uid="{EC2B6FF3-7DA6-4379-946B-CF6F3F9E9071}" name="状态"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,40 +409,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>88192819</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>87116273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="C4">
+        <v>81130182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>